--- a/biology/Zoologie/Cimbex/Cimbex.xlsx
+++ b/biology/Zoologie/Cimbex/Cimbex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cimbex est un genre d'hyménoptères symphytes, des insectes proches des guêpes, au corps trapu et aux antennes en massue. Certaines espèces, comme Cimbex femoratus, sont d'un poids important et d'une grande taille.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (14 décembre 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (14 décembre 2021) :
 Cimbex americanus Leach, 1817
 Cimbex connatus (Schrank, 1776)
 Cimbex fagi Zaddach, 1863
@@ -555,9 +569,11 @@
           <t>Espèces européennes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Fauna Europaea                                      (14 décembre 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Fauna Europaea                                      (14 décembre 2021) :
 Cimbex connatus
 Cimbex fagi
 Cimbex femoratus
